--- a/etc/documentum/2022MBO_최종/업적평가_장만규.xlsx
+++ b/etc/documentum/2022MBO_최종/업적평가_장만규.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mk\mQ\etc\documentum\2022MBO_최종\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8496" windowHeight="6732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8490" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t>관점
 가중치
@@ -68,6 +73,181 @@
 ▶ 실행프로젝트 Pilot 적용 중 L&amp;L 취합 (현대차 발전소) (4월~12월)
 ▶ BIM 수행 협력사 평가(3월) 중 파악되는 업체별 특징 정리 및 외주 시나리오 파악 (6월)
 ▶ BIM 내부+외주의 최적 Work Process 수립에 반영 (10월)"</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>"□ 2D기반에서 BIM기반으로 플랜트건축팀 업무방식 전환 촉진
+▶ BIM Leading Group 확대 및 교육 (5월~10월) - 교육 커리큘럼 준비 및 교육자료 준비
+▶ LE급에 대한 BIM 활용을 통한 경쟁력 강화 교육 및 Workshop -  교육자료 준비 (5월~10월)
+▶실행 프로젝트(현대차 발전소) Pilot 적용 LL 수집 및 정리 (4월~12월)
+▶모델링 편의 제공 모듈 다이나모 개발 예정: 팀내 의견 취합 (연중)"</t>
+  </si>
+  <si>
+    <t>□ 2D기반에서 BIM기반으로 플랜트건축팀 업무방식 전환 촉진
+▶ BIM Leading Group 확대 및 교육 (5월~10월) 
+   - BIM 본사직원 전체 (17명) 대상 교육으로 확대 실시 : 05/24 ~06/30, 총 5회/1인, 총 10회 강의 실시 완료 
+▶ LE급에 대한 BIM 활용을 통한 경쟁력 강화 교육 및 Workshop (5월~10월)
+   - BIM 본사 LE 전체 (13명) 대상 교육으로 확대 실시 : 05/24 ~06/30, 총 5회/1인, 총 10회 강의 실시 완료 
+▶실행 프로젝트(현대차 발전소) Pilot 적용 LL 전파 (4월~12월)
+    - BIM 외주 협력사 평가 공유 : 5월
+    - New BIM 기반 외주 내역서 (외주1-기존업체 + 외주2-BIM전문사, 외주1-2간 역무구분) 전파 : 5월
+    - 현대차발전소 사업 중지 : 6월7일
+    - 하반기 현대차오일뱅크 or 원자력사업으로 대체 진행 후 LL 전파 예정</t>
+  </si>
+  <si>
+    <t>신사업 및 미래기술 핵심 역량 강화</t>
+  </si>
+  <si>
+    <t>□ 2022년 전사 기술개발 과제 수행 및 목표 달성 : BIM기반 공정(4D), 공사비(5D) 관리 System 구축</t>
+  </si>
+  <si>
+    <t>"□ 통합 3D모델 기반 공정(4D), 공사비(5D) 관리 시스템 구축 (건축팀+배관팀+공정팀 협업)
+▶ Synchro 건축+배관 통합 모델 2개동 작성 (6월) - 작성과정 검토 및 모델링 기준 점검
+▶ Synchro 기반 건축+배관 통합 모델 과정 LL 작성"</t>
+  </si>
+  <si>
+    <t>□ 통합 3D모델 기반 공정(4D), 공사비(5D) 관리 시스템 구축 (건축팀+배관팀+공정팀 협업)
+▶ Synchro 건축+배관 통합 모델 2개동 작성 (6월)
+   - Revit 건축 Modeling 2개동 (Turbine Building &amp; Control Building) 완료 : 4월
+   - S3D 배관 Modeling 1개동 (기존 Turbine Building 수정) 완료 : 4월
+▶ Synchro 건축+배관 통합 모델 2개동에 대한 공정표 작성 (7월)
+   - Navisworks 건축+배관 통합 모델 1개동(STB) 작성 : 5월
+   - Synchro 건축+배관 통합 모델 1개동(STB) 작성 : 5월
+   - Synchro 소프트웨어 사용자 교육 완료 : 6월
+   - Primavera 건축 모델 1개동(CCB)에 대한 공정표 작성 : 7월
+▶ Synchro 기반 건축+배관 통합 모델 2개동에 대한 공정률 산정 및 공정 모니터링 (10월)</t>
+  </si>
+  <si>
+    <t>스마트기술 현업 적용 및 개발</t>
+  </si>
+  <si>
+    <t>□ 2022년 엔지니어링사업부 사업계획 과제 수행 및 목표 달성 : BIM 스마트 기술 확대</t>
+  </si>
+  <si>
+    <t>"□ Synchro기반 4D, 5D Pilot 수행을 위한 배관+건축 통합모델 작성 및 입력 정보 기준 수립 (건축팀+배관팀+공정팀 협업)
+▶ 현대차 발전소 S3D(배관)-Revit(건축) 통합 3D모델 : Steam Turbine Building (IFA 2월~4월, IFC 6월~7월) 
+▶ 현대차 발전소 S3D(배관)-Revit(건축) 통합 3D모델 : Central Control Building (IFA 2월~4월, IFC 6월~7월) 
+▶ 3D 기반 설계팀간 정보 교환 기준 수립 (5월)
+▶ 4D, 5D 활용을 위한 3D 설계 단계의 입력 정보 기준 수립 - 공정팀 Feedback반영 (5월~9월)"</t>
+  </si>
+  <si>
+    <t>□ Synchro기반 4D, 5D Pilot 수행을 위한 배관+건축 통합모델 작성 및 입력 정보 기준 수립 (건축팀+배관팀+공정팀 협업)
+▶ 현대차 발전소 S3D(배관)-Revit(건축) 통합 3D모델 : Steam Turbine Building (IFA 2월~4월, IFC 6월~7월) 
+   - Synchro 건축+배관 통합 모델 1개동(STB) 작성 : 5월
+▶ 현대차 발전소 S3D(배관)-Revit(건축) 통합 3D모델 : Central Control Building (IFA 2월~4월, IFC 6월~7월) 
+   - CCB에 대해서는 Synchro 건축 모델로만 진행 : 6월
+▶ 3D 기반 설계팀간 정보 교환 기준 수립 (5월)
+    - 현대차발전소 사업 중지 : 6월7일
+    - 배관팀 모델링 수정작업불가(외주예산 필요)로 CCB 건축모델에서만 검토 예정 : 8~9월
+▶ 4D, 5D 활용을 위한 3D 설계 단계의 입력 정보 기준 수립 - 공정팀 Feedback반영 (5월~9월)
+    - 현대차발전소 사업 중지 : 6월7일
+    - 배관팀 모델링 수정작업불가(외주예산 필요)로 CCB 건축모델에서만 검토 예정 : 8~9월</t>
+  </si>
+  <si>
+    <t>업무관점</t>
+  </si>
+  <si>
+    <t>□ BIM기반 건축 기본/상세 설계 능력향상</t>
+  </si>
+  <si>
+    <t>"□ 현대차 발전소 BIM 실무적용을 통한 최적 Work Process 수립으로 설계 생산성 향상, 목표 1년차 10% 
+▶ BIM Work Process 중 Grey Zone 발생 여부 선제 파악 및 정리(연중)
+▶ 현대차 발전소 BIM 수행 결과 리포트 양식 작성 및 검토(10월)"</t>
+  </si>
+  <si>
+    <t>□ 현대차 발전소 BIM 실무적용을 통한 최적 Work Process 수립으로 설계 생산성 향상, 목표 1년차 10% 
+⇒  - 현대차발전소 사업 중지 : 6월7일
+     - Pilot CCB건물로 대체 진행 : 8월</t>
+  </si>
+  <si>
+    <t>□ EPC 통합 마인드의 설계 수행</t>
+  </si>
+  <si>
+    <t>"□ 현대차발전소 프로젝트의 4D(공정관리) 수행을 위한 건축 BIM 설계 단계 정보 입력 기준 수립
+▶ BIM 프로젝트 매개변수 항목 확정 및 입력 (4월)
+▶ 공정팀 Feedback에 따른 4D 정보 입력 시 맨아워 소모 심한 작업파악 및 자동화 모듈 개발 예정 (5~9월)"</t>
+  </si>
+  <si>
+    <t>□ 현대차발전소 프로젝트의 4D(공정관리) 수행을 위한 건축 BIM 설계 단계 정보 입력 기준 수립
+▶ BIM 프로젝트 매개변수 항목 확정 및 입력 (4월)
+▶ 공정팀 Feedback에 따른 4D 활용을 위한 3D 설계 단계의 정보 입력 (5~9월)
+⇒  - 현대차발전소 사업 중지 : 6월7일
+     - Pilot CCB건물로 대체 진행 : 8월</t>
+  </si>
+  <si>
+    <t>□ 디지털화된 설계 실행사업 적용</t>
+  </si>
+  <si>
+    <t>"□ 현대차 발전소 BIM 실무적용 
+▶ 현대차 발전소 프로젝트 Template 작성
+    -건물 종류별 구분하여 필요 View List 작성 및 View Template List 작성
+▶ 현대차 발전소 Family List 작성 (3월~4월)
+    -Family List 내부 WorkMaster 정보 다이나모 연계 모듈 완성
+▶ 현대차 발전소 전체 건축 성과품 도면에 대한 BIM기반 도면 산출 (6월~12월)
+    -모델링 ~ 도면 간 자동 연계 미흡 아이템 파악 및 솔루션 작성(by Dynamo)"</t>
+  </si>
+  <si>
+    <t>□ 현대차 발전소 BIM 실무적용 
+▶ 현대차 발전소 프로젝트 Template 작성 (3월~4월)
+    - 현대차 STB, CCB 건물 대상으로 완료 : 4월
+▶ 현대차 발전소 Family List 작성 (3월~4월)
+    - 현대차 STB, CCB 건물 대상으로 완료 : 4월
+▶ 현대차 발전소 전체 건축 성과품 도면에 대한 BIM기반 도면 산출 (6월~12월)
+    - 현대차발전소 사업 중지 : 6월7일
+    - 하반기 현대차오일뱅크 or 원자력사업으로 대체 진행 예정</t>
+  </si>
+  <si>
+    <t>□ 건축/구조 설계 수행 역량 함양(필수)</t>
+  </si>
+  <si>
+    <t>"
+□ Multi Engineer 육성 교육 참여:
+▶ AISC 360-16 Spec. for Steel Buildings Chapter E, Columns (2월)
+ Chapter F, Beams (3월)
+ Chapter G, Shear (4월) 
+ Chapter J, Design of Connections (5월) ~(6월) - 발표 예정
+ Chapter K, Additional Requirements for Box (7월)
+ Chapter L, Design for Serviceability (8월)
+ Chapter M, Fabrication and Erection (9월)
+ Chapter N, QC &amp; QA (10월)
+▶ 건축 심화 세미나와 연계하여 Dynamic Document로 변환된 AISC360 및 활용 방법 공유 예정 (건축심화세미나와 연계하여)"</t>
+  </si>
+  <si>
+    <t>□ Multi Engineer 육성 교육 참여:
+▶ AISC 360-16 Spec. for Steel Buildings Chapter E, Columns (2월)
+    - 교육 스케쥴에 맞춰 참여 (연중)
+▶ 건축 심화 세미나와 연계하여 Dynamic Document로 변환된 AISC360 및 활용 방법 공유 예정 (건축심화세미나와 연계하여)
+    - 건축심화 세미나를 통해 AISC360중 Tension, Compression Chapter 내용 동적문서로 변환 완료 및 팀내 발표 완료(팀 교육 게시판에 자료 공유 완료)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>인재육성관점</t>
+  </si>
+  <si>
+    <t>□ BIM 교육</t>
+  </si>
+  <si>
+    <t>□ BIM 활용을 통한 경쟁력 강화 교육 및 Workshop (5월~10월) : 전 팀원 대상</t>
+  </si>
+  <si>
+    <t xml:space="preserve">▶ BIM Leading Group 확대 및 교육 (5월~10월) 
+   - BIM 본사직원 (17명) 대상 교육 실시 : 05/24 ~06/30, 총 5회/1인, 총 10회 강의 실시 완료 
+▶ LE급에 대한 BIM 활용을 통한 경쟁력 강화 교육 및 Workshop (5월~10월)
+   - BIM 본사 LE (13명) 대상 교육 실시 : 05/24 ~06/30, 총 5회/1인, 총 10회 강의 실시 완료 </t>
+  </si>
+  <si>
+    <t>비정형관점</t>
+  </si>
+  <si>
+    <t>연초 수립한 목표 이외에 달성한 성과나 실적 기입
+(추진 실적 및 평가등급만 기입)</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
   <si>
     <t>□ BIM 실무적용 - 매뉴얼 수립에 필요한 이슈 사항 취합
@@ -81,39 +261,21 @@
     - BIM 기반 외주 내역서 수립 (외주1-기존업체 + 외주2-BIM전문사), 외주1-2간 역무구분 수립 : 5월
 ▶ BIM 내부+외주의 최적 Work Process 수립에 반영 (10월)
     - BIM 기반 팀 Work Process 수립 : 5월</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>"□ 2D기반에서 BIM기반으로 플랜트건축팀 업무방식 전환 촉진
-▶ BIM Leading Group 확대 및 교육 (5월~10월) - 교육 커리큘럼 준비 및 교육자료 준비
-▶ LE급에 대한 BIM 활용을 통한 경쟁력 강화 교육 및 Workshop -  교육자료 준비 (5월~10월)
-▶실행 프로젝트(현대차 발전소) Pilot 적용 LL 수집 및 정리 (4월~12월)
-▶모델링 편의 제공 모듈 다이나모 개발 예정: 팀내 의견 취합 (연중)"</t>
-  </si>
-  <si>
-    <t>□ 2D기반에서 BIM기반으로 플랜트건축팀 업무방식 전환 촉진
-▶ BIM Leading Group 확대 및 교육 (5월~10월) 
-   - BIM 본사직원 전체 (17명) 대상 교육으로 확대 실시 : 05/24 ~06/30, 총 5회/1인, 총 10회 강의 실시 완료 
-▶ LE급에 대한 BIM 활용을 통한 경쟁력 강화 교육 및 Workshop (5월~10월)
-   - BIM 본사 LE 전체 (13명) 대상 교육으로 확대 실시 : 05/24 ~06/30, 총 5회/1인, 총 10회 강의 실시 완료 
-▶실행 프로젝트(현대차 발전소) Pilot 적용 LL 전파 (4월~12월)
-    - BIM 외주 협력사 평가 공유 : 5월
-    - New BIM 기반 외주 내역서 (외주1-기존업체 + 외주2-BIM전문사, 외주1-2간 역무구분) 전파 : 5월
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>□ BIM 실무적용 - 매뉴얼 수립에 필요한 이슈 사항 취합
+▶ 실행프로젝트 Pilot 적용 중 L&amp;L 취합 (현대차 발전소) (4월~12월)
     - 현대차발전소 사업 중지 : 6월7일
-    - 하반기 현대차오일뱅크 or 원자력사업으로 대체 진행 후 LL 전파 예정</t>
-  </si>
-  <si>
-    <t>신사업 및 미래기술 핵심 역량 강화</t>
-  </si>
-  <si>
-    <t>□ 2022년 전사 기술개발 과제 수행 및 목표 달성 : BIM기반 공정(4D), 공사비(5D) 관리 System 구축</t>
-  </si>
-  <si>
-    <t>"□ 통합 3D모델 기반 공정(4D), 공사비(5D) 관리 시스템 구축 (건축팀+배관팀+공정팀 협업)
-▶ Synchro 건축+배관 통합 모델 2개동 작성 (6월) - 작성과정 검토 및 모델링 기준 점검
-▶ Synchro 기반 건축+배관 통합 모델 과정 LL 작성"</t>
+    - 하반기 현대차오일뱅크 or 원자력사업으로 대체 진행 중
+▶ BIM 수행 협력사 평가(3월) 중 파악되는 업체별 특징 정리 및 외주 시나리오 파악 (6월)
+    - 기존 건축팀 협력사 6개사, BIM전문사 3개사, Re-Bar Shop BIM전문사 8개사 평가 완료 : 3월
+    - 평가결과 외주팀 송부 : 4월
+    - BIM 기반 외주 내역서 수립 (외주1-기존업체 + 외주2-BIM전문사), 외주1-2간 역무구분 수립 : 5월
+▶ BIM 내부+외주의 최적 Work Process 수립에 반영 (10월)
+    - BIM 기반 팀 Work Process 수립 : 5월
+    &gt;&gt; MMR 외주에 역무 구분 적용 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>□ 통합 3D모델 기반 공정(4D), 공사비(5D) 관리 시스템 구축 (건축팀+배관팀+공정팀 협업)
@@ -125,20 +287,9 @@
    - Synchro 건축+배관 통합 모델 1개동(STB) 작성 : 5월
    - Synchro 소프트웨어 사용자 교육 완료 : 6월
    - Primavera 건축 모델 1개동(CCB)에 대한 공정표 작성 : 7월
-▶ Synchro 기반 건축+배관 통합 모델 2개동에 대한 공정률 산정 및 공정 모니터링 (10월)</t>
-  </si>
-  <si>
-    <t>스마트기술 현업 적용 및 개발</t>
-  </si>
-  <si>
-    <t>□ 2022년 엔지니어링사업부 사업계획 과제 수행 및 목표 달성 : BIM 스마트 기술 확대</t>
-  </si>
-  <si>
-    <t>"□ Synchro기반 4D, 5D Pilot 수행을 위한 배관+건축 통합모델 작성 및 입력 정보 기준 수립 (건축팀+배관팀+공정팀 협업)
-▶ 현대차 발전소 S3D(배관)-Revit(건축) 통합 3D모델 : Steam Turbine Building (IFA 2월~4월, IFC 6월~7월) 
-▶ 현대차 발전소 S3D(배관)-Revit(건축) 통합 3D모델 : Central Control Building (IFA 2월~4월, IFC 6월~7월) 
-▶ 3D 기반 설계팀간 정보 교환 기준 수립 (5월)
-▶ 4D, 5D 활용을 위한 3D 설계 단계의 입력 정보 기준 수립 - 공정팀 Feedback반영 (5월~9월)"</t>
+▶ Synchro 기반 건축+배관 통합 모델 2개동에 대한 공정률 산정 및 공정 모니터링 (10월)
+    &gt;&gt; 태스크-3D Object Assign 방식 테스트 완료: 수동 방식 / 자동 방식(Synchro Script + 자동매칭 기능)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>□ Synchro기반 4D, 5D Pilot 수행을 위한 배관+건축 통합모델 작성 및 입력 정보 기준 수립 (건축팀+배관팀+공정팀 협업)
@@ -151,111 +302,24 @@
     - 배관팀 모델링 수정작업불가(외주예산 필요)로 CCB 건축모델에서만 검토 예정 : 8~9월
 ▶ 4D, 5D 활용을 위한 3D 설계 단계의 입력 정보 기준 수립 - 공정팀 Feedback반영 (5월~9월)
     - 현대차발전소 사업 중지 : 6월7일
-    - 배관팀 모델링 수정작업불가(외주예산 필요)로 CCB 건축모델에서만 검토 예정 : 8~9월</t>
-  </si>
-  <si>
-    <t>업무관점</t>
-  </si>
-  <si>
-    <t>□ BIM기반 건축 기본/상세 설계 능력향상</t>
-  </si>
-  <si>
-    <t>"□ 현대차 발전소 BIM 실무적용을 통한 최적 Work Process 수립으로 설계 생산성 향상, 목표 1년차 10% 
-▶ BIM Work Process 중 Grey Zone 발생 여부 선제 파악 및 정리(연중)
-▶ 현대차 발전소 BIM 수행 결과 리포트 양식 작성 및 검토(10월)"</t>
-  </si>
-  <si>
-    <t>□ 현대차 발전소 BIM 실무적용을 통한 최적 Work Process 수립으로 설계 생산성 향상, 목표 1년차 10% 
-⇒  - 현대차발전소 사업 중지 : 6월7일
-     - Pilot CCB건물로 대체 진행 : 8월</t>
-  </si>
-  <si>
-    <t>□ EPC 통합 마인드의 설계 수행</t>
-  </si>
-  <si>
-    <t>"□ 현대차발전소 프로젝트의 4D(공정관리) 수행을 위한 건축 BIM 설계 단계 정보 입력 기준 수립
-▶ BIM 프로젝트 매개변수 항목 확정 및 입력 (4월)
-▶ 공정팀 Feedback에 따른 4D 정보 입력 시 맨아워 소모 심한 작업파악 및 자동화 모듈 개발 예정 (5~9월)"</t>
-  </si>
-  <si>
-    <t>□ 현대차발전소 프로젝트의 4D(공정관리) 수행을 위한 건축 BIM 설계 단계 정보 입력 기준 수립
-▶ BIM 프로젝트 매개변수 항목 확정 및 입력 (4월)
-▶ 공정팀 Feedback에 따른 4D 활용을 위한 3D 설계 단계의 정보 입력 (5~9월)
-⇒  - 현대차발전소 사업 중지 : 6월7일
-     - Pilot CCB건물로 대체 진행 : 8월</t>
-  </si>
-  <si>
-    <t>□ 디지털화된 설계 실행사업 적용</t>
-  </si>
-  <si>
-    <t>"□ 현대차 발전소 BIM 실무적용 
-▶ 현대차 발전소 프로젝트 Template 작성
-    -건물 종류별 구분하여 필요 View List 작성 및 View Template List 작성
-▶ 현대차 발전소 Family List 작성 (3월~4월)
-    -Family List 내부 WorkMaster 정보 다이나모 연계 모듈 완성
-▶ 현대차 발전소 전체 건축 성과품 도면에 대한 BIM기반 도면 산출 (6월~12월)
-    -모델링 ~ 도면 간 자동 연계 미흡 아이템 파악 및 솔루션 작성(by Dynamo)"</t>
-  </si>
-  <si>
-    <t>□ 현대차 발전소 BIM 실무적용 
-▶ 현대차 발전소 프로젝트 Template 작성 (3월~4월)
-    - 현대차 STB, CCB 건물 대상으로 완료 : 4월
-▶ 현대차 발전소 Family List 작성 (3월~4월)
-    - 현대차 STB, CCB 건물 대상으로 완료 : 4월
-▶ 현대차 발전소 전체 건축 성과품 도면에 대한 BIM기반 도면 산출 (6월~12월)
-    - 현대차발전소 사업 중지 : 6월7일
-    - 하반기 현대차오일뱅크 or 원자력사업으로 대체 진행 예정</t>
-  </si>
-  <si>
-    <t>□ 건축/구조 설계 수행 역량 함양(필수)</t>
-  </si>
-  <si>
-    <t>"
-□ Multi Engineer 육성 교육 참여:
-▶ AISC 360-16 Spec. for Steel Buildings Chapter E, Columns (2월)
- Chapter F, Beams (3월)
- Chapter G, Shear (4월) 
- Chapter J, Design of Connections (5월) ~(6월) - 발표 예정
- Chapter K, Additional Requirements for Box (7월)
- Chapter L, Design for Serviceability (8월)
- Chapter M, Fabrication and Erection (9월)
- Chapter N, QC &amp; QA (10월)
-▶ 건축 심화 세미나와 연계하여 Dynamic Document로 변환된 AISC360 및 활용 방법 공유 예정 (건축심화세미나와 연계하여)"</t>
+    - 배관팀 모델링 수정작업불가(외주예산 필요)로 CCB 건축모델에서만 검토 예정 : 8~9월
+    &gt;&gt;전기, 배관, 건축 모델 통합하여 공정관리 테스트 중(STB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>□ Multi Engineer 육성 교육 참여:
 ▶ AISC 360-16 Spec. for Steel Buildings Chapter E, Columns (2월)
     - 교육 스케쥴에 맞춰 참여 (연중)
 ▶ 건축 심화 세미나와 연계하여 Dynamic Document로 변환된 AISC360 및 활용 방법 공유 예정 (건축심화세미나와 연계하여)
-    - 건축심화 세미나를 통해 AISC360중 Tension, Compression Chapter 내용 동적문서로 변환 완료 및 팀내 발표 완료(팀 교육 게시판에 자료 공유 완료)</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>인재육성관점</t>
-  </si>
-  <si>
-    <t>□ BIM 교육</t>
-  </si>
-  <si>
-    <t>□ BIM 활용을 통한 경쟁력 강화 교육 및 Workshop (5월~10월) : 전 팀원 대상</t>
-  </si>
-  <si>
-    <t xml:space="preserve">▶ BIM Leading Group 확대 및 교육 (5월~10월) 
-   - BIM 본사직원 (17명) 대상 교육 실시 : 05/24 ~06/30, 총 5회/1인, 총 10회 강의 실시 완료 
-▶ LE급에 대한 BIM 활용을 통한 경쟁력 강화 교육 및 Workshop (5월~10월)
-   - BIM 본사 LE (13명) 대상 교육 실시 : 05/24 ~06/30, 총 5회/1인, 총 10회 강의 실시 완료 </t>
-  </si>
-  <si>
-    <t>비정형관점</t>
-  </si>
-  <si>
-    <t>연초 수립한 목표 이외에 달성한 성과나 실적 기입
-(추진 실적 및 평가등급만 기입)</t>
-  </si>
-  <si>
-    <t>Y</t>
+    - 건축심화 세미나를 통해 AISC360중 Tension, Compression Chapter 내용 동적문서로 변환 완료 및 팀내 발표 완료(팀 교육 게시판에 자료 공유 완료)
+    &gt;&gt;휨, 압축, 인장에 관한 부재해석 방법 학습 완료 및 파이썬 코딩 완료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>건축 심화세미나 참여:
+    &gt;&gt; "동적문서를 활용한 구조프로그램 작성" 이라는 주제로 참여하였으며, 인장, 휨 압축, 복합력에 대해, 주어진 하중조건 하에서 부재의 단면이 버틸 수 있는지 계산하는 프로그램을 작성함.
+    &gt;&gt; 11월 팀 전체 발표예정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -334,16 +398,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,369 +698,369 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.19921875" customWidth="1"/>
-    <col min="2" max="2" width="15.296875" customWidth="1"/>
-    <col min="3" max="3" width="54.796875" customWidth="1"/>
-    <col min="4" max="4" width="8.19921875" customWidth="1"/>
-    <col min="5" max="5" width="108.19921875" customWidth="1"/>
-    <col min="6" max="6" width="136.69921875" customWidth="1"/>
-    <col min="7" max="7" width="161.796875" customWidth="1"/>
-    <col min="8" max="8" width="10.69921875" customWidth="1"/>
-    <col min="9" max="9" width="5.8984375" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="35.375" customWidth="1"/>
+    <col min="4" max="4" width="8.25" customWidth="1"/>
+    <col min="5" max="5" width="52.125" customWidth="1"/>
+    <col min="6" max="6" width="91.25" customWidth="1"/>
+    <col min="7" max="7" width="113.375" customWidth="1"/>
+    <col min="8" max="8" width="91" customWidth="1"/>
+    <col min="9" max="9" width="5.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.95" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="49.9" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.95" customHeight="1">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:9" ht="49.9" customHeight="1">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="271.05" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" ht="271.14999999999998" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="256.89999999999998" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="256.95" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="256.89999999999998" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="285" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="88.9" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="256.95" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="D7" s="2">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="103.15" customHeight="1">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="159" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="285" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="229.15" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="88.95" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="103.05" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4">
-        <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="159" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="229.05" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="4">
-        <v>10</v>
-      </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="H10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="103.15" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="103.05" customHeight="1">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4">
-        <v>10</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="118.5" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="46.95" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="4">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>15</v>
+      <c r="F12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
